--- a/Code/Results/Cases/Case_2_174/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_174/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.57732428267859</v>
+        <v>11.32082412494098</v>
       </c>
       <c r="C2">
-        <v>12.34269306445023</v>
+        <v>8.178640804395142</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.42805973208496</v>
+        <v>11.98333633642644</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>2.056197975549447</v>
+        <v>3.60034719021465</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.15545501234433</v>
+        <v>14.03781326338859</v>
       </c>
       <c r="N2">
-        <v>11.14509214369685</v>
+        <v>16.46225587529685</v>
       </c>
       <c r="O2">
-        <v>13.41582021773544</v>
+        <v>18.40487989437006</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.36511193770396</v>
+        <v>10.78088386508945</v>
       </c>
       <c r="C3">
-        <v>11.66359353064931</v>
+        <v>7.846599462231715</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.74388295100054</v>
+        <v>11.85919753509363</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>2.061771699366868</v>
+        <v>3.602421833494636</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.03947341587218</v>
+        <v>13.77102802358012</v>
       </c>
       <c r="N3">
-        <v>11.31242703990934</v>
+        <v>16.51719901889272</v>
       </c>
       <c r="O3">
-        <v>13.16137969265163</v>
+        <v>18.44638975706748</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.57809649939064</v>
+        <v>10.43639917922075</v>
       </c>
       <c r="C4">
-        <v>11.22608953116447</v>
+        <v>7.633970861245526</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.31744057666705</v>
+        <v>11.78686436687489</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>2.065292390585026</v>
+        <v>3.603762645725069</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.31763314429757</v>
+        <v>13.60789689591619</v>
       </c>
       <c r="N4">
-        <v>11.41870125590044</v>
+        <v>16.55283662722829</v>
       </c>
       <c r="O4">
-        <v>13.02126043642079</v>
+        <v>18.47784496985784</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.24659973835285</v>
+        <v>10.29294343273274</v>
       </c>
       <c r="C5">
-        <v>11.04271257283037</v>
+        <v>7.5452005243435</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.14226574120982</v>
+        <v>11.7583987950543</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>2.06675260404367</v>
+        <v>3.604325933441762</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.01422565782231</v>
+        <v>13.54168350323451</v>
       </c>
       <c r="N5">
-        <v>11.46289528174306</v>
+        <v>16.56783861421201</v>
       </c>
       <c r="O5">
-        <v>12.96813481034457</v>
+        <v>18.49215668637765</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.19090274113751</v>
+        <v>10.26894288224622</v>
       </c>
       <c r="C6">
-        <v>11.01195806998046</v>
+        <v>7.530334603094911</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.11310048659758</v>
+        <v>11.75373407070418</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>2.066996633173877</v>
+        <v>3.604420489022538</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.96328529977552</v>
+        <v>13.53070751947653</v>
       </c>
       <c r="N6">
-        <v>11.4702871911155</v>
+        <v>16.57035866607288</v>
       </c>
       <c r="O6">
-        <v>12.95955078461341</v>
+        <v>18.49462311351134</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.57366952077729</v>
+        <v>10.43447667420977</v>
       </c>
       <c r="C7">
-        <v>11.22363694468494</v>
+        <v>7.632782155096564</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.31508346296998</v>
+        <v>11.78647633593462</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>2.065311979296538</v>
+        <v>3.60377017393694</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.31357879196937</v>
+        <v>13.60700272579879</v>
       </c>
       <c r="N7">
-        <v>11.41929368359216</v>
+        <v>16.55303700695334</v>
       </c>
       <c r="O7">
-        <v>13.02052798865377</v>
+        <v>18.47803194577422</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.16819078735212</v>
+        <v>11.13744381004496</v>
       </c>
       <c r="C8">
-        <v>12.1128387210775</v>
+        <v>8.066013783817871</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.19358284050485</v>
+        <v>11.93974675222471</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>2.058099842091205</v>
+        <v>3.601048660151961</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.77823615375017</v>
+        <v>13.94574131977208</v>
       </c>
       <c r="N8">
-        <v>11.20205549200887</v>
+        <v>16.48080606360775</v>
       </c>
       <c r="O8">
-        <v>13.32470526174057</v>
+        <v>18.41794967669124</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.95844654379827</v>
+        <v>12.4064251930495</v>
       </c>
       <c r="C9">
-        <v>13.6914488655339</v>
+        <v>8.84318426732953</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.85916051323815</v>
+        <v>12.26959709458786</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.044701066253368</v>
+        <v>3.596240668512143</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.36239694013684</v>
+        <v>14.61132434598412</v>
       </c>
       <c r="N9">
-        <v>10.80417821487447</v>
+        <v>16.35420900324438</v>
       </c>
       <c r="O9">
-        <v>14.05157565490452</v>
+        <v>18.34777648412739</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.80698708960185</v>
+        <v>13.26461281928683</v>
       </c>
       <c r="C10">
-        <v>14.74890183542386</v>
+        <v>9.36675546383103</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.19166829760257</v>
+        <v>12.52755424217144</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.035256071537507</v>
+        <v>3.593027143152062</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.08974117875029</v>
+        <v>15.09587707362791</v>
       </c>
       <c r="N10">
-        <v>10.52928712824178</v>
+        <v>16.27030751230372</v>
       </c>
       <c r="O10">
-        <v>14.66761748554711</v>
+        <v>18.32562644954232</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.60513106949588</v>
+        <v>13.63776879413103</v>
       </c>
       <c r="C11">
-        <v>15.2076726633971</v>
+        <v>9.594113689800357</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.80375879682665</v>
+        <v>12.64778996309311</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.031032843664221</v>
+        <v>3.591633725427643</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.83951783981371</v>
+        <v>15.31429657209859</v>
       </c>
       <c r="N11">
-        <v>10.40812542669957</v>
+        <v>16.23410331943791</v>
       </c>
       <c r="O11">
-        <v>14.96600383807881</v>
+        <v>18.32199628996652</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.90130152437306</v>
+        <v>13.77651913623583</v>
       </c>
       <c r="C12">
-        <v>15.37820364651009</v>
+        <v>9.678617313691101</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.03244486872583</v>
+        <v>12.6936919476929</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.029442988954849</v>
+        <v>3.591115857837734</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.11836768846757</v>
+        <v>15.39663571509501</v>
       </c>
       <c r="N12">
-        <v>10.36281725814381</v>
+        <v>16.22067506530021</v>
       </c>
       <c r="O12">
-        <v>15.08162194686457</v>
+        <v>18.3215522604234</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.8377845046456</v>
+        <v>13.74675151696102</v>
       </c>
       <c r="C13">
-        <v>15.34161865362183</v>
+        <v>9.660489271145886</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.98332904110825</v>
+        <v>12.6837903269487</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.02978499442714</v>
+        <v>3.591226955305846</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.05853632132851</v>
+        <v>15.37892030964901</v>
       </c>
       <c r="N13">
-        <v>10.37254942884013</v>
+        <v>16.22355457315284</v>
       </c>
       <c r="O13">
-        <v>15.05660448633093</v>
+        <v>18.32160645006493</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.62961834646394</v>
+        <v>13.6492354817687</v>
       </c>
       <c r="C14">
-        <v>15.22176631822202</v>
+        <v>9.601097948470851</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.82263432559776</v>
+        <v>12.6515591596143</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.030901864134323</v>
+        <v>3.591590924244036</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.86256005692234</v>
+        <v>15.32107857027153</v>
       </c>
       <c r="N14">
-        <v>10.40438631613289</v>
+        <v>16.23299293188917</v>
       </c>
       <c r="O14">
-        <v>14.97546309594859</v>
+        <v>18.3219410899299</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.50132265120511</v>
+        <v>13.5891692107447</v>
       </c>
       <c r="C15">
-        <v>15.14793752353187</v>
+        <v>9.564510738284532</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.72380429411947</v>
+        <v>12.63186367789013</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.031587165994641</v>
+        <v>3.591815139102243</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.74186133266993</v>
+        <v>15.28559805280501</v>
       </c>
       <c r="N15">
-        <v>10.42396244871979</v>
+        <v>16.23881083415005</v>
       </c>
       <c r="O15">
-        <v>14.92610406161114</v>
+        <v>18.32226735781237</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.75397266213208</v>
+        <v>13.23987243692863</v>
       </c>
       <c r="C16">
-        <v>14.71847229840034</v>
+        <v>9.351676145368865</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.15122630537661</v>
+        <v>12.51975093427618</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.035533448527225</v>
+        <v>3.593119578930047</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.04002561627455</v>
+        <v>15.08155527415119</v>
       </c>
       <c r="N16">
-        <v>10.53728468435849</v>
+        <v>16.27271297409904</v>
       </c>
       <c r="O16">
-        <v>14.64848380366447</v>
+        <v>18.32599373526277</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.28459934806364</v>
+        <v>13.02111596062233</v>
       </c>
       <c r="C17">
-        <v>14.4493069284665</v>
+        <v>9.218310628581449</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.79431778079443</v>
+        <v>12.45168222033107</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.037972356459437</v>
+        <v>3.593937301062434</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.60032120776407</v>
+        <v>14.95580732997229</v>
       </c>
       <c r="N17">
-        <v>10.60780885758971</v>
+        <v>16.29401304292017</v>
       </c>
       <c r="O17">
-        <v>14.48283255960549</v>
+        <v>18.32993362890987</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.01059765231378</v>
+        <v>12.89367415845148</v>
       </c>
       <c r="C18">
-        <v>14.29239287487826</v>
+        <v>9.140585948206216</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.58692014347432</v>
+        <v>12.4128055773666</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.039382130162252</v>
+        <v>3.594414077277381</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.34401952239196</v>
+        <v>14.88329632953616</v>
       </c>
       <c r="N18">
-        <v>10.64873737615524</v>
+        <v>16.3064490930903</v>
       </c>
       <c r="O18">
-        <v>14.38926159235612</v>
+        <v>18.33280631117665</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.91713078440326</v>
+        <v>12.85024908445067</v>
       </c>
       <c r="C19">
-        <v>14.23890423297408</v>
+        <v>9.114096357069581</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.51633259693874</v>
+        <v>12.39969113033285</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.03986068762554</v>
+        <v>3.594576613842788</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.25665406381805</v>
+        <v>14.85871633458606</v>
       </c>
       <c r="N19">
-        <v>10.66265736504058</v>
+        <v>16.31069149253989</v>
       </c>
       <c r="O19">
-        <v>14.35787276709688</v>
+        <v>18.33388300245791</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.33498152604855</v>
+        <v>13.04457110783554</v>
       </c>
       <c r="C20">
-        <v>14.47817708307456</v>
+        <v>9.232613088631659</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.83252922237726</v>
+        <v>12.45890014160845</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.037712016401513</v>
+        <v>3.593849586577003</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.64747918671779</v>
+        <v>14.96921308403487</v>
       </c>
       <c r="N20">
-        <v>10.60026358445905</v>
+        <v>16.29172649248232</v>
       </c>
       <c r="O20">
-        <v>14.50028960162719</v>
+        <v>18.32945141427484</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.6909258408285</v>
+        <v>13.67794821332661</v>
       </c>
       <c r="C21">
-        <v>15.25705647567123</v>
+        <v>9.618586088395833</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.86991736179344</v>
+        <v>12.66101651124716</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.030573567276309</v>
+        <v>3.591483752464819</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.92025988258</v>
+        <v>15.33807881619828</v>
       </c>
       <c r="N21">
-        <v>10.39501936534421</v>
+        <v>16.23021302381057</v>
       </c>
       <c r="O21">
-        <v>14.99922490242593</v>
+        <v>18.32181751567877</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.54177894686853</v>
+        <v>14.07697343977191</v>
       </c>
       <c r="C22">
-        <v>15.7474832679517</v>
+        <v>9.861549367040869</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.52991096928704</v>
+        <v>12.795254924293</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.025962303745293</v>
+        <v>3.589994580239181</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.72257377993105</v>
+        <v>15.57695267360308</v>
       </c>
       <c r="N22">
-        <v>10.26423035657287</v>
+        <v>16.19165079502401</v>
       </c>
       <c r="O22">
-        <v>15.34062040767803</v>
+        <v>18.32225387420913</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.09086753231077</v>
+        <v>13.8653936805895</v>
       </c>
       <c r="C23">
-        <v>15.48743171991157</v>
+        <v>9.732736144206058</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.17926410155044</v>
+        <v>12.72342789503219</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.028418876805892</v>
+        <v>3.590784177286769</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.2970284078903</v>
+        <v>15.44968891210884</v>
       </c>
       <c r="N23">
-        <v>10.33372275660551</v>
+        <v>16.21208234207482</v>
       </c>
       <c r="O23">
-        <v>15.15700469015581</v>
+        <v>18.32152354081267</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.31221668420045</v>
+        <v>13.03397224951065</v>
       </c>
       <c r="C24">
-        <v>14.46513163721663</v>
+        <v>9.226150217520113</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.81526071003576</v>
+        <v>12.45563611562148</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.037829692342412</v>
+        <v>3.593889221556011</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.62617000419844</v>
+        <v>14.96315301162099</v>
       </c>
       <c r="N24">
-        <v>10.60367360977834</v>
+        <v>16.29275964889727</v>
       </c>
       <c r="O24">
-        <v>14.49239209071106</v>
+        <v>18.32966753116596</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.2392830911459</v>
+        <v>12.07569938010259</v>
       </c>
       <c r="C25">
-        <v>13.28230176314281</v>
+        <v>8.641061052863572</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.41547375390582</v>
+        <v>12.17745305949718</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.048251528196921</v>
+        <v>3.597485101547926</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.69373800017818</v>
+        <v>14.43167945684994</v>
       </c>
       <c r="N25">
-        <v>10.90878206506579</v>
+        <v>16.38685263184929</v>
       </c>
       <c r="O25">
-        <v>13.84067036908353</v>
+        <v>18.36161918829445</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_174/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_174/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.32082412494098</v>
+        <v>18.5773242826786</v>
       </c>
       <c r="C2">
-        <v>8.178640804395142</v>
+        <v>12.34269306445006</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.98333633642644</v>
+        <v>12.42805973208496</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.60034719021465</v>
+        <v>2.056197975549584</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.03781326338859</v>
+        <v>17.15545501234435</v>
       </c>
       <c r="N2">
-        <v>16.46225587529685</v>
+        <v>11.14509214369684</v>
       </c>
       <c r="O2">
-        <v>18.40487989437006</v>
+        <v>13.41582021773549</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.78088386508945</v>
+        <v>17.36511193770388</v>
       </c>
       <c r="C3">
-        <v>7.846599462231715</v>
+        <v>11.66359353064933</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.85919753509363</v>
+        <v>11.74388295100055</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.602421833494636</v>
+        <v>2.061771699367001</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.77102802358012</v>
+        <v>16.03947341587211</v>
       </c>
       <c r="N3">
-        <v>16.51719901889272</v>
+        <v>11.31242703990946</v>
       </c>
       <c r="O3">
-        <v>18.44638975706748</v>
+        <v>13.16137969265182</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.43639917922075</v>
+        <v>16.57809649939069</v>
       </c>
       <c r="C4">
-        <v>7.633970861245526</v>
+        <v>11.22608953116438</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.78686436687489</v>
+        <v>11.31744057666709</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.603762645725069</v>
+        <v>2.065292390585159</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.60789689591619</v>
+        <v>15.31763314429759</v>
       </c>
       <c r="N4">
-        <v>16.55283662722829</v>
+        <v>11.41870125590041</v>
       </c>
       <c r="O4">
-        <v>18.47784496985784</v>
+        <v>13.02126043642068</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.29294343273274</v>
+        <v>16.24659973835285</v>
       </c>
       <c r="C5">
-        <v>7.5452005243435</v>
+        <v>11.04271257283028</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.7583987950543</v>
+        <v>11.14226574120983</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.604325933441762</v>
+        <v>2.066752604043402</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.54168350323451</v>
+        <v>15.0142256578223</v>
       </c>
       <c r="N5">
-        <v>16.56783861421201</v>
+        <v>11.46289528174306</v>
       </c>
       <c r="O5">
-        <v>18.49215668637765</v>
+        <v>12.96813481034461</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.26894288224622</v>
+        <v>16.19090274113752</v>
       </c>
       <c r="C6">
-        <v>7.530334603094911</v>
+        <v>11.01195806998032</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.75373407070418</v>
+        <v>11.11310048659762</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.604420489022538</v>
+        <v>2.066996633173876</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.53070751947653</v>
+        <v>14.96328529977544</v>
       </c>
       <c r="N6">
-        <v>16.57035866607288</v>
+        <v>11.47028719111543</v>
       </c>
       <c r="O6">
-        <v>18.49462311351134</v>
+        <v>12.95955078461334</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.43447667420977</v>
+        <v>16.57366952077733</v>
       </c>
       <c r="C7">
-        <v>7.632782155096564</v>
+        <v>11.22363694468487</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.78647633593462</v>
+        <v>11.31508346296996</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.60377017393694</v>
+        <v>2.065311979296268</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.60700272579879</v>
+        <v>15.31357879196941</v>
       </c>
       <c r="N7">
-        <v>16.55303700695334</v>
+        <v>11.41929368359217</v>
       </c>
       <c r="O7">
-        <v>18.47803194577422</v>
+        <v>13.02052798865376</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.13744381004496</v>
+        <v>18.16819078735206</v>
       </c>
       <c r="C8">
-        <v>8.066013783817871</v>
+        <v>12.11283872107746</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.93974675222471</v>
+        <v>12.19358284050481</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.601048660151961</v>
+        <v>2.058099842091338</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.94574131977208</v>
+        <v>16.77823615375015</v>
       </c>
       <c r="N8">
-        <v>16.48080606360775</v>
+        <v>11.20205549200893</v>
       </c>
       <c r="O8">
-        <v>18.41794967669124</v>
+        <v>13.32470526174069</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.4064251930495</v>
+        <v>20.95844654379829</v>
       </c>
       <c r="C9">
-        <v>8.84318426732953</v>
+        <v>13.69144886553388</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.26959709458786</v>
+        <v>13.85916051323816</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.596240668512143</v>
+        <v>2.044701066253366</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.61132434598412</v>
+        <v>19.36239694013686</v>
       </c>
       <c r="N9">
-        <v>16.35420900324438</v>
+        <v>10.80417821487443</v>
       </c>
       <c r="O9">
-        <v>18.34777648412739</v>
+        <v>14.0515756549045</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.26461281928683</v>
+        <v>22.80698708960184</v>
       </c>
       <c r="C10">
-        <v>9.36675546383103</v>
+        <v>14.74890183542384</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.52755424217144</v>
+        <v>15.19166829760261</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.593027143152062</v>
+        <v>2.035256071537107</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.09587707362791</v>
+        <v>21.08974117875026</v>
       </c>
       <c r="N10">
-        <v>16.27030751230372</v>
+        <v>10.5292871282418</v>
       </c>
       <c r="O10">
-        <v>18.32562644954232</v>
+        <v>14.66761748554717</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.63776879413103</v>
+        <v>23.6051310694958</v>
       </c>
       <c r="C11">
-        <v>9.594113689800357</v>
+        <v>15.20767266339712</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.64778996309311</v>
+        <v>15.80375879682663</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.591633725427643</v>
+        <v>2.031032843664223</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.31429657209859</v>
+        <v>21.83951783981367</v>
       </c>
       <c r="N11">
-        <v>16.23410331943791</v>
+        <v>10.4081254266997</v>
       </c>
       <c r="O11">
-        <v>18.32199628996652</v>
+        <v>14.96600383807885</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.77651913623583</v>
+        <v>23.9013015243731</v>
       </c>
       <c r="C12">
-        <v>9.678617313691101</v>
+        <v>15.37820364651009</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.6936919476929</v>
+        <v>16.03244486872583</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.591115857837734</v>
+        <v>2.029442988954447</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.39663571509501</v>
+        <v>22.1183676884676</v>
       </c>
       <c r="N12">
-        <v>16.22067506530021</v>
+        <v>10.36281725814385</v>
       </c>
       <c r="O12">
-        <v>18.3215522604234</v>
+        <v>15.08162194686455</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.74675151696102</v>
+        <v>23.83778450464574</v>
       </c>
       <c r="C13">
-        <v>9.660489271145886</v>
+        <v>15.34161865362176</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.6837903269487</v>
+        <v>15.98332904110826</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.591226955305846</v>
+        <v>2.029784994427006</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.37892030964901</v>
+        <v>22.05853632132856</v>
       </c>
       <c r="N13">
-        <v>16.22355457315284</v>
+        <v>10.37254942884004</v>
       </c>
       <c r="O13">
-        <v>18.32160645006493</v>
+        <v>15.05660448633085</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.6492354817687</v>
+        <v>23.62961834646388</v>
       </c>
       <c r="C14">
-        <v>9.601097948470851</v>
+        <v>15.22176631822197</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.6515591596143</v>
+        <v>15.82263432559779</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.591590924244036</v>
+        <v>2.030901864134591</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.32107857027153</v>
+        <v>21.86256005692234</v>
       </c>
       <c r="N14">
-        <v>16.23299293188917</v>
+        <v>10.40438631613288</v>
       </c>
       <c r="O14">
-        <v>18.3219410899299</v>
+        <v>14.97546309594863</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.5891692107447</v>
+        <v>23.50132265120511</v>
       </c>
       <c r="C15">
-        <v>9.564510738284532</v>
+        <v>15.14793752353195</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.63186367789013</v>
+        <v>15.72380429411944</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.591815139102243</v>
+        <v>2.031587165994506</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.28559805280501</v>
+        <v>21.74186133266991</v>
       </c>
       <c r="N15">
-        <v>16.23881083415005</v>
+        <v>10.42396244871982</v>
       </c>
       <c r="O15">
-        <v>18.32226735781237</v>
+        <v>14.92610406161115</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.23987243692863</v>
+        <v>22.75397266213209</v>
       </c>
       <c r="C16">
-        <v>9.351676145368865</v>
+        <v>14.71847229840033</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.51975093427618</v>
+        <v>15.1512263053766</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.593119578930047</v>
+        <v>2.035533448526957</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.08155527415119</v>
+        <v>21.04002561627454</v>
       </c>
       <c r="N16">
-        <v>16.27271297409904</v>
+        <v>10.53728468435856</v>
       </c>
       <c r="O16">
-        <v>18.32599373526277</v>
+        <v>14.64848380366451</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.02111596062233</v>
+        <v>22.28459934806372</v>
       </c>
       <c r="C17">
-        <v>9.218310628581449</v>
+        <v>14.44930692846663</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.45168222033107</v>
+        <v>14.79431778079447</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.593937301062434</v>
+        <v>2.037972356459703</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.95580732997229</v>
+        <v>20.60032120776416</v>
       </c>
       <c r="N17">
-        <v>16.29401304292017</v>
+        <v>10.60780885758967</v>
       </c>
       <c r="O17">
-        <v>18.32993362890987</v>
+        <v>14.48283255960546</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.89367415845148</v>
+        <v>22.01059765231376</v>
       </c>
       <c r="C18">
-        <v>9.140585948206216</v>
+        <v>14.29239287487826</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.4128055773666</v>
+        <v>14.58692014347431</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.594414077277381</v>
+        <v>2.039382130162252</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.88329632953616</v>
+        <v>20.34401952239194</v>
       </c>
       <c r="N18">
-        <v>16.3064490930903</v>
+        <v>10.64873737615527</v>
       </c>
       <c r="O18">
-        <v>18.33280631117665</v>
+        <v>14.38926159235614</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.85024908445067</v>
+        <v>21.91713078440331</v>
       </c>
       <c r="C19">
-        <v>9.114096357069581</v>
+        <v>14.23890423297419</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.39969113033285</v>
+        <v>14.51633259693872</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.594576613842788</v>
+        <v>2.03986068762554</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.85871633458606</v>
+        <v>20.25665406381807</v>
       </c>
       <c r="N19">
-        <v>16.31069149253989</v>
+        <v>10.66265736504048</v>
       </c>
       <c r="O19">
-        <v>18.33388300245791</v>
+        <v>14.35787276709682</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.04457110783554</v>
+        <v>22.3349815260485</v>
       </c>
       <c r="C20">
-        <v>9.232613088631659</v>
+        <v>14.47817708307445</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.45890014160845</v>
+        <v>14.83252922237727</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.593849586577003</v>
+        <v>2.037712016401247</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.96921308403487</v>
+        <v>20.64747918671779</v>
       </c>
       <c r="N20">
-        <v>16.29172649248232</v>
+        <v>10.60026358445905</v>
       </c>
       <c r="O20">
-        <v>18.32945141427484</v>
+        <v>14.50028960162727</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.67794821332661</v>
+        <v>23.69092584082842</v>
       </c>
       <c r="C21">
-        <v>9.618586088395833</v>
+        <v>15.25705647567129</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.66101651124716</v>
+        <v>15.86991736179345</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.591483752464819</v>
+        <v>2.030573567276177</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.33807881619828</v>
+        <v>21.92025988257998</v>
       </c>
       <c r="N21">
-        <v>16.23021302381057</v>
+        <v>10.39501936534428</v>
       </c>
       <c r="O21">
-        <v>18.32181751567877</v>
+        <v>14.99922490242597</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.07697343977191</v>
+        <v>24.54177894686846</v>
       </c>
       <c r="C22">
-        <v>9.861549367040869</v>
+        <v>15.74748326795168</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.795254924293</v>
+        <v>16.52991096928706</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.589994580239181</v>
+        <v>2.025962303745159</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.57695267360308</v>
+        <v>22.72257377993103</v>
       </c>
       <c r="N22">
-        <v>16.19165079502401</v>
+        <v>10.26423035657289</v>
       </c>
       <c r="O22">
-        <v>18.32225387420913</v>
+        <v>15.34062040767808</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.8653936805895</v>
+        <v>24.09086753231077</v>
       </c>
       <c r="C23">
-        <v>9.732736144206058</v>
+        <v>15.48743171991156</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.72342789503219</v>
+        <v>16.17926410155041</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.590784177286769</v>
+        <v>2.028418876805891</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.44968891210884</v>
+        <v>22.29702840789025</v>
       </c>
       <c r="N23">
-        <v>16.21208234207482</v>
+        <v>10.33372275660551</v>
       </c>
       <c r="O23">
-        <v>18.32152354081267</v>
+        <v>15.15700469015581</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.03397224951065</v>
+        <v>22.31221668420043</v>
       </c>
       <c r="C24">
-        <v>9.226150217520113</v>
+        <v>14.46513163721663</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.45563611562148</v>
+        <v>14.81526071003583</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.593889221556011</v>
+        <v>2.037829692342413</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.96315301162099</v>
+        <v>20.6261700041985</v>
       </c>
       <c r="N24">
-        <v>16.29275964889727</v>
+        <v>10.60367360977837</v>
       </c>
       <c r="O24">
-        <v>18.32966753116596</v>
+        <v>14.49239209071107</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.07569938010259</v>
+        <v>20.23928309114591</v>
       </c>
       <c r="C25">
-        <v>8.641061052863572</v>
+        <v>13.28230176314279</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.17745305949718</v>
+        <v>13.41547375390581</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.597485101547926</v>
+        <v>2.048251528197189</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.43167945684994</v>
+        <v>18.69373800017819</v>
       </c>
       <c r="N25">
-        <v>16.38685263184929</v>
+        <v>10.90878206506582</v>
       </c>
       <c r="O25">
-        <v>18.36161918829445</v>
+        <v>13.84067036908352</v>
       </c>
     </row>
   </sheetData>
